--- a/Emotions-578321506.xlsx
+++ b/Emotions-578321506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Дата</t>
   </si>
@@ -52,6 +52,18 @@
     <t>02:02:00.294409</t>
   </si>
   <si>
+    <t>08:05:28.628172</t>
+  </si>
+  <si>
+    <t>11:09:24.490578</t>
+  </si>
+  <si>
+    <t>14:14:50.343441</t>
+  </si>
+  <si>
+    <t>16:16:38.425520</t>
+  </si>
+  <si>
     <t>ЭМОЦИЯ</t>
   </si>
   <si>
@@ -61,6 +73,9 @@
     <t>ЭМОЦИЯ3</t>
   </si>
   <si>
+    <t>ЭМОЦИЯ4</t>
+  </si>
+  <si>
     <t>wd</t>
   </si>
   <si>
@@ -80,6 +95,18 @@
   </si>
   <si>
     <t>hj</t>
+  </si>
+  <si>
+    <t>dwafa</t>
+  </si>
+  <si>
+    <t>hjjh</t>
+  </si>
+  <si>
+    <t>ede</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,10 +499,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -489,10 +516,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -506,10 +533,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -523,10 +550,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -540,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -557,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -574,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -591,10 +618,78 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Emotions-578321506.xlsx
+++ b/Emotions-578321506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Дата</t>
   </si>
@@ -64,6 +64,21 @@
     <t>16:16:38.425520</t>
   </si>
   <si>
+    <t>17:30:52.579873</t>
+  </si>
+  <si>
+    <t>19:13:07.587287</t>
+  </si>
+  <si>
+    <t>19:14:29.364459</t>
+  </si>
+  <si>
+    <t>19:22:19.542932</t>
+  </si>
+  <si>
+    <t>19:29:08.829786</t>
+  </si>
+  <si>
     <t>ЭМОЦИЯ</t>
   </si>
   <si>
@@ -76,6 +91,9 @@
     <t>ЭМОЦИЯ4</t>
   </si>
   <si>
+    <t>ЭМОЦИЯ++</t>
+  </si>
+  <si>
     <t>wd</t>
   </si>
   <si>
@@ -107,6 +125,21 @@
   </si>
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>усталостью</t>
+  </si>
+  <si>
+    <t>цуйц</t>
+  </si>
+  <si>
+    <t>цй</t>
+  </si>
+  <si>
+    <t>ыввы</t>
+  </si>
+  <si>
+    <t>ц</t>
   </si>
 </sst>
 </file>
@@ -468,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -516,10 +549,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -533,10 +566,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -550,10 +583,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -567,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -584,10 +617,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -601,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -618,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -635,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -652,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -669,10 +702,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -686,10 +719,95 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44381</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Emotions-578321506.xlsx
+++ b/Emotions-578321506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Дата</t>
   </si>
@@ -28,118 +28,97 @@
     <t>Причина</t>
   </si>
   <si>
-    <t>01:35:39.351282</t>
-  </si>
-  <si>
-    <t>01:35:46.756331</t>
-  </si>
-  <si>
-    <t>01:37:17.544197</t>
-  </si>
-  <si>
-    <t>01:57:30.710333</t>
-  </si>
-  <si>
-    <t>02:00:59.548098</t>
-  </si>
-  <si>
-    <t>02:01:25.561095</t>
-  </si>
-  <si>
-    <t>02:01:34.960493</t>
-  </si>
-  <si>
-    <t>02:02:00.294409</t>
-  </si>
-  <si>
-    <t>08:05:28.628172</t>
-  </si>
-  <si>
-    <t>11:09:24.490578</t>
-  </si>
-  <si>
-    <t>14:14:50.343441</t>
-  </si>
-  <si>
-    <t>16:16:38.425520</t>
-  </si>
-  <si>
-    <t>17:30:52.579873</t>
-  </si>
-  <si>
-    <t>19:13:07.587287</t>
-  </si>
-  <si>
-    <t>19:14:29.364459</t>
-  </si>
-  <si>
-    <t>19:22:19.542932</t>
-  </si>
-  <si>
-    <t>19:29:08.829786</t>
-  </si>
-  <si>
-    <t>ЭМОЦИЯ</t>
-  </si>
-  <si>
-    <t>ЭМОЦИЯ2</t>
-  </si>
-  <si>
-    <t>ЭМОЦИЯ3</t>
-  </si>
-  <si>
-    <t>ЭМОЦИЯ4</t>
-  </si>
-  <si>
-    <t>ЭМОЦИЯ++</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>hj</t>
-  </si>
-  <si>
-    <t>dwafa</t>
-  </si>
-  <si>
-    <t>hjjh</t>
-  </si>
-  <si>
-    <t>ede</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>усталостью</t>
-  </si>
-  <si>
-    <t>цуйц</t>
-  </si>
-  <si>
-    <t>цй</t>
-  </si>
-  <si>
-    <t>ыввы</t>
-  </si>
-  <si>
-    <t>ц</t>
+    <t>08:16:46.062624</t>
+  </si>
+  <si>
+    <t>09:27:36.740969</t>
+  </si>
+  <si>
+    <t>11:00:57.898951</t>
+  </si>
+  <si>
+    <t>14:01:17.973098</t>
+  </si>
+  <si>
+    <t>09:04:07.486360</t>
+  </si>
+  <si>
+    <t>12:02:05.527635</t>
+  </si>
+  <si>
+    <t>13:01:37.741370</t>
+  </si>
+  <si>
+    <t>09:35:56.234654</t>
+  </si>
+  <si>
+    <t>12:53:39.905636</t>
+  </si>
+  <si>
+    <t>09:10:26.055490</t>
+  </si>
+  <si>
+    <t>14:01:04.905315</t>
+  </si>
+  <si>
+    <t>18:54:25.258017</t>
+  </si>
+  <si>
+    <t>13:42:30.980068</t>
+  </si>
+  <si>
+    <t>23:26:41.374428</t>
+  </si>
+  <si>
+    <t>15:42:33.252102</t>
+  </si>
+  <si>
+    <t>интерес</t>
+  </si>
+  <si>
+    <t>печаль</t>
+  </si>
+  <si>
+    <t>беспокойство</t>
+  </si>
+  <si>
+    <t>тревогу</t>
+  </si>
+  <si>
+    <t>напряг</t>
+  </si>
+  <si>
+    <t>Прпрпр</t>
+  </si>
+  <si>
+    <t>Ааааа</t>
+  </si>
+  <si>
+    <t>Разочарованием</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Уууу</t>
+  </si>
+  <si>
+    <t>Работой</t>
+  </si>
+  <si>
+    <t>Куку</t>
+  </si>
+  <si>
+    <t>Недостатком времени</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Роо</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -501,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,16 +505,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -543,16 +522,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -560,16 +539,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -577,16 +556,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -594,16 +573,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44381</v>
+        <v>44384</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -611,16 +590,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44381</v>
+        <v>44384</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -628,16 +607,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44381</v>
+        <v>44384</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -645,16 +624,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44381</v>
+        <v>44385</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -662,16 +641,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44381</v>
+        <v>44385</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -679,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44381</v>
+        <v>44386</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -688,7 +667,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -696,16 +675,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44381</v>
+        <v>44386</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -713,16 +692,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44381</v>
+        <v>44389</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -730,16 +709,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44381</v>
+        <v>44392</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -747,16 +726,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44381</v>
+        <v>44395</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -764,50 +743,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44381</v>
+        <v>44403</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44381</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44381</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Emotions-578321506.xlsx
+++ b/Emotions-578321506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Дата</t>
   </si>
@@ -28,97 +28,55 @@
     <t>Причина</t>
   </si>
   <si>
-    <t>08:16:46.062624</t>
-  </si>
-  <si>
-    <t>09:27:36.740969</t>
-  </si>
-  <si>
-    <t>11:00:57.898951</t>
-  </si>
-  <si>
-    <t>14:01:17.973098</t>
-  </si>
-  <si>
-    <t>09:04:07.486360</t>
-  </si>
-  <si>
-    <t>12:02:05.527635</t>
-  </si>
-  <si>
-    <t>13:01:37.741370</t>
-  </si>
-  <si>
-    <t>09:35:56.234654</t>
-  </si>
-  <si>
-    <t>12:53:39.905636</t>
-  </si>
-  <si>
-    <t>09:10:26.055490</t>
-  </si>
-  <si>
-    <t>14:01:04.905315</t>
-  </si>
-  <si>
-    <t>18:54:25.258017</t>
-  </si>
-  <si>
-    <t>13:42:30.980068</t>
-  </si>
-  <si>
-    <t>23:26:41.374428</t>
-  </si>
-  <si>
-    <t>15:42:33.252102</t>
+    <t>20:21:00.183883</t>
+  </si>
+  <si>
+    <t>21:01:06.771928</t>
+  </si>
+  <si>
+    <t>22:19:59.451668</t>
+  </si>
+  <si>
+    <t>21:25:05.928088</t>
+  </si>
+  <si>
+    <t>21:18:00.293068</t>
+  </si>
+  <si>
+    <t>00:37:47.424867</t>
+  </si>
+  <si>
+    <t>10:41:12.367873</t>
+  </si>
+  <si>
+    <t>22:51:14.549317</t>
+  </si>
+  <si>
+    <t>19:16:37.836731</t>
+  </si>
+  <si>
+    <t>21:01:38.078307</t>
   </si>
   <si>
     <t>интерес</t>
   </si>
   <si>
-    <t>печаль</t>
-  </si>
-  <si>
-    <t>беспокойство</t>
-  </si>
-  <si>
-    <t>тревогу</t>
-  </si>
-  <si>
-    <t>напряг</t>
-  </si>
-  <si>
-    <t>Прпрпр</t>
-  </si>
-  <si>
-    <t>Ааааа</t>
-  </si>
-  <si>
-    <t>Разочарованием</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Уууу</t>
-  </si>
-  <si>
-    <t>Работой</t>
-  </si>
-  <si>
-    <t>Куку</t>
-  </si>
-  <si>
-    <t>Недостатком времени</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>Роо</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Я 2</t>
+  </si>
+  <si>
+    <t>Ввв</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -480,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,16 +463,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44382</v>
+        <v>44409</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -522,16 +480,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44382</v>
+        <v>44409</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -539,16 +497,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44382</v>
+        <v>44409</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -556,16 +514,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -573,16 +531,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44384</v>
+        <v>44411</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -590,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44384</v>
+        <v>44413</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -607,16 +565,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44384</v>
+        <v>44416</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -624,16 +582,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44385</v>
+        <v>44416</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -641,16 +599,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44385</v>
+        <v>44421</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -658,101 +616,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44386</v>
+        <v>44421</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44386</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44389</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44392</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44395</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44403</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
